--- a/Data/EC/NIT-9017189796.xlsx
+++ b/Data/EC/NIT-9017189796.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FD2C2862-C5F3-4898-AE5F-B58662C2C910}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C15210E-1892-43DB-9940-2A997CBCBC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{3D4BA8AC-E4FA-4792-B6A9-BEF4FFEF7878}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{297EF768-52BC-4E12-8ABD-19C2039AF0A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,61 +65,82 @@
     <t>CC</t>
   </si>
   <si>
+    <t>7938680</t>
+  </si>
+  <si>
+    <t>DEVER ANDRES PAJARO PAJARO</t>
+  </si>
+  <si>
+    <t>2507</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>1128053543</t>
+  </si>
+  <si>
+    <t>JAIRO ANDRES HERNANDEZ BALLESTA</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
     <t>73232396</t>
   </si>
   <si>
     <t>EDWIN ALFONSO BUELVAS ARRIETA</t>
   </si>
   <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
     <t>2306</t>
   </si>
   <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
     <t>9113176</t>
   </si>
   <si>
     <t>SAUL ENRIQUE COHEN ALVIS</t>
   </si>
   <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>1128053543</t>
-  </si>
-  <si>
-    <t>JAIRO ANDRES HERNANDEZ BALLESTA</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2506</t>
+    <t>73197393</t>
+  </si>
+  <si>
+    <t>JORGE GOMEZ NAVIAS</t>
+  </si>
+  <si>
+    <t>1047463327</t>
+  </si>
+  <si>
+    <t>LUIS DAVIS NAVAS BANQUEZ</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -533,7 +554,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BA70BE33-1B8E-42C4-5580-D6D53A823A51}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DE7AD7-F746-C504-8EC3-4AC4BCB9C2A9}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -884,8 +905,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E1D98AF0-F12B-49EA-AFD1-872AC867825F}">
-  <dimension ref="B2:J35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF39F14-16EE-418A-8486-3FCECBF9F077}">
+  <dimension ref="B2:J49"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -909,7 +930,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -954,7 +975,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>29</v>
+        <v>36</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -986,12 +1007,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>30</v>
+        <v>37</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>701920</v>
+        <v>1444740</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1002,17 +1023,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>31</v>
+        <v>38</v>
       </c>
       <c r="C13" s="5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="F13" s="5">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1039,13 +1060,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>35</v>
+        <v>42</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1062,10 +1083,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>37120</v>
+        <v>52000</v>
       </c>
       <c r="G16" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1085,10 +1106,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G17" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1108,10 +1129,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>46400</v>
+        <v>52000</v>
       </c>
       <c r="G18" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1122,19 +1143,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D19" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" s="16" t="s">
         <v>14</v>
       </c>
-      <c r="D19" s="17" t="s">
-        <v>15</v>
-      </c>
-      <c r="E19" s="16" t="s">
-        <v>16</v>
-      </c>
       <c r="F19" s="18">
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1145,19 +1166,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1168,19 +1189,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1191,19 +1212,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
+        <v>9</v>
+      </c>
+      <c r="D22" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E22" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="17" t="s">
-        <v>18</v>
-      </c>
-      <c r="E22" s="16" t="s">
-        <v>20</v>
-      </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1214,19 +1235,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D23" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="E23" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E23" s="16" t="s">
-        <v>21</v>
-      </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1237,19 +1258,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>17</v>
+        <v>9</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>18</v>
+        <v>10</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1300000</v>
+        <v>1423500</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1260,13 +1281,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>23</v>
+        <v>11</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1283,13 +1304,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1306,13 +1327,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>25</v>
+        <v>13</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1329,13 +1350,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>26</v>
+        <v>14</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1348,56 +1369,378 @@
       <c r="J28" s="20"/>
     </row>
     <row r="29" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B29" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C29" s="22" t="s">
+      <c r="B29" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C29" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D29" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E29" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G29" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H29" s="19"/>
+      <c r="I29" s="19"/>
+      <c r="J29" s="20"/>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B30" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D30" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E30" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F30" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G30" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H30" s="19"/>
+      <c r="I30" s="19"/>
+      <c r="J30" s="20"/>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B31" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D31" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" s="16" t="s">
         <v>17</v>
       </c>
-      <c r="D29" s="23" t="s">
+      <c r="F31" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G31" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H31" s="19"/>
+      <c r="I31" s="19"/>
+      <c r="J31" s="20"/>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B32" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C32" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D32" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E32" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E29" s="22" t="s">
+      <c r="F32" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G32" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H32" s="19"/>
+      <c r="I32" s="19"/>
+      <c r="J32" s="20"/>
+    </row>
+    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B33" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C33" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D33" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F33" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G33" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H33" s="19"/>
+      <c r="I33" s="19"/>
+      <c r="J33" s="20"/>
+    </row>
+    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B34" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D34" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="F34" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G34" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H34" s="19"/>
+      <c r="I34" s="19"/>
+      <c r="J34" s="20"/>
+    </row>
+    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B35" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C35" s="16" t="s">
+        <v>20</v>
+      </c>
+      <c r="D35" s="17" t="s">
+        <v>21</v>
+      </c>
+      <c r="E35" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F35" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G35" s="18">
+        <v>1300000</v>
+      </c>
+      <c r="H35" s="19"/>
+      <c r="I35" s="19"/>
+      <c r="J35" s="20"/>
+    </row>
+    <row r="36" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B36" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E36" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="F36" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G36" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H36" s="19"/>
+      <c r="I36" s="19"/>
+      <c r="J36" s="20"/>
+    </row>
+    <row r="37" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B37" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C37" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D37" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="F29" s="24">
-        <v>52000</v>
-      </c>
-      <c r="G29" s="24">
+      <c r="F37" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G37" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H37" s="19"/>
+      <c r="I37" s="19"/>
+      <c r="J37" s="20"/>
+    </row>
+    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B38" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C38" s="16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>25</v>
+      </c>
+      <c r="E38" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="F38" s="18">
+        <v>37120</v>
+      </c>
+      <c r="G38" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H38" s="19"/>
+      <c r="I38" s="19"/>
+      <c r="J38" s="20"/>
+    </row>
+    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B39" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C39" s="16" t="s">
+        <v>29</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="E39" s="16" t="s">
+        <v>23</v>
+      </c>
+      <c r="F39" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G39" s="18">
+        <v>908526</v>
+      </c>
+      <c r="H39" s="19"/>
+      <c r="I39" s="19"/>
+      <c r="J39" s="20"/>
+    </row>
+    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B40" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40" s="16" t="s">
+        <v>31</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="E40" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F40" s="18">
+        <v>52000</v>
+      </c>
+      <c r="G40" s="18">
         <v>1300000</v>
       </c>
-      <c r="H29" s="25"/>
-      <c r="I29" s="25"/>
-      <c r="J29" s="26"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="32" t="s">
-        <v>37</v>
-      </c>
-      <c r="C34" s="32"/>
-      <c r="H34" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="I34" s="1"/>
-      <c r="J34" s="1"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="32" t="s">
-        <v>36</v>
-      </c>
-      <c r="C35" s="32"/>
-      <c r="H35" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="I35" s="1"/>
-      <c r="J35" s="1"/>
+      <c r="H40" s="19"/>
+      <c r="I40" s="19"/>
+      <c r="J40" s="20"/>
+    </row>
+    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B41" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C41" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E41" s="16" t="s">
+        <v>13</v>
+      </c>
+      <c r="F41" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G41" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H41" s="19"/>
+      <c r="I41" s="19"/>
+      <c r="J41" s="20"/>
+    </row>
+    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B42" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C42" s="16" t="s">
+        <v>33</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>34</v>
+      </c>
+      <c r="E42" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="F42" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G42" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H42" s="19"/>
+      <c r="I42" s="19"/>
+      <c r="J42" s="20"/>
+    </row>
+    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B43" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43" s="22" t="s">
+        <v>33</v>
+      </c>
+      <c r="D43" s="23" t="s">
+        <v>34</v>
+      </c>
+      <c r="E43" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="24">
+        <v>56940</v>
+      </c>
+      <c r="G43" s="24">
+        <v>1160000</v>
+      </c>
+      <c r="H43" s="25"/>
+      <c r="I43" s="25"/>
+      <c r="J43" s="26"/>
+    </row>
+    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B48" s="32" t="s">
+        <v>44</v>
+      </c>
+      <c r="C48" s="32"/>
+      <c r="H48" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="I48" s="1"/>
+      <c r="J48" s="1"/>
+    </row>
+    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B49" s="32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49" s="32"/>
+      <c r="H49" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="I49" s="1"/>
+      <c r="J49" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="H35:J35"/>
-    <mergeCell ref="H34:J34"/>
+    <mergeCell ref="B49:C49"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="H49:J49"/>
+    <mergeCell ref="H48:J48"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>

--- a/Data/EC/NIT-9017189796.xlsx
+++ b/Data/EC/NIT-9017189796.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5C15210E-1892-43DB-9940-2A997CBCBC0B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{7A160866-2FAD-4C9A-9236-1CE69FE1A7CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{297EF768-52BC-4E12-8ABD-19C2039AF0A2}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{BF67A136-257B-42E8-9C84-765203115398}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="132" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="41">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -65,82 +65,67 @@
     <t>CC</t>
   </si>
   <si>
-    <t>7938680</t>
-  </si>
-  <si>
-    <t>DEVER ANDRES PAJARO PAJARO</t>
+    <t>73232396</t>
+  </si>
+  <si>
+    <t>EDWIN ALFONSO BUELVAS ARRIETA</t>
+  </si>
+  <si>
+    <t>2306</t>
+  </si>
+  <si>
+    <t>2307</t>
+  </si>
+  <si>
+    <t>2308</t>
+  </si>
+  <si>
+    <t>1128053543</t>
+  </si>
+  <si>
+    <t>JAIRO ANDRES HERNANDEZ BALLESTA</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>9113176</t>
+  </si>
+  <si>
+    <t>SAUL ENRIQUE COHEN ALVIS</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
   </si>
   <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>1128053543</t>
-  </si>
-  <si>
-    <t>JAIRO ANDRES HERNANDEZ BALLESTA</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>73232396</t>
-  </si>
-  <si>
-    <t>EDWIN ALFONSO BUELVAS ARRIETA</t>
-  </si>
-  <si>
-    <t>2308</t>
-  </si>
-  <si>
-    <t>2307</t>
-  </si>
-  <si>
-    <t>2306</t>
-  </si>
-  <si>
-    <t>9113176</t>
-  </si>
-  <si>
-    <t>SAUL ENRIQUE COHEN ALVIS</t>
-  </si>
-  <si>
-    <t>73197393</t>
-  </si>
-  <si>
-    <t>JORGE GOMEZ NAVIAS</t>
-  </si>
-  <si>
-    <t>1047463327</t>
-  </si>
-  <si>
-    <t>LUIS DAVIS NAVAS BANQUEZ</t>
+    <t>2508</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -239,7 +224,9 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -252,9 +239,7 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
+      <right/>
       <top style="thin">
         <color indexed="64"/>
       </top>
@@ -454,23 +439,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -498,10 +483,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -554,7 +539,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{34DE7AD7-F746-C504-8EC3-4AC4BCB9C2A9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{499D4A6F-C455-3087-0B7A-68FF3C33CEDF}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -905,8 +890,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AF39F14-16EE-418A-8486-3FCECBF9F077}">
-  <dimension ref="B2:J49"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A7C40E38-F5DE-4212-A847-506B3AA635B6}">
+  <dimension ref="B2:J37"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -930,7 +915,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -975,7 +960,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1007,12 +992,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>1444740</v>
+        <v>805920</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1023,17 +1008,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C13" s="5">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F13" s="5">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1060,13 +1045,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="I15" s="13" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="J15" s="14" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1083,10 +1068,10 @@
         <v>11</v>
       </c>
       <c r="F16" s="18">
-        <v>52000</v>
+        <v>37120</v>
       </c>
       <c r="G16" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H16" s="19"/>
       <c r="I16" s="19"/>
@@ -1106,10 +1091,10 @@
         <v>12</v>
       </c>
       <c r="F17" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G17" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H17" s="19"/>
       <c r="I17" s="19"/>
@@ -1129,10 +1114,10 @@
         <v>13</v>
       </c>
       <c r="F18" s="18">
-        <v>52000</v>
+        <v>46400</v>
       </c>
       <c r="G18" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H18" s="19"/>
       <c r="I18" s="19"/>
@@ -1143,19 +1128,19 @@
         <v>8</v>
       </c>
       <c r="C19" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D19" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E19" s="16" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F19" s="18">
         <v>52000</v>
       </c>
       <c r="G19" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H19" s="19"/>
       <c r="I19" s="19"/>
@@ -1166,19 +1151,19 @@
         <v>8</v>
       </c>
       <c r="C20" s="16" t="s">
-        <v>9</v>
+        <v>17</v>
       </c>
       <c r="D20" s="17" t="s">
-        <v>10</v>
+        <v>18</v>
       </c>
       <c r="E20" s="16" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="F20" s="18">
         <v>52000</v>
       </c>
       <c r="G20" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H20" s="19"/>
       <c r="I20" s="19"/>
@@ -1189,19 +1174,19 @@
         <v>8</v>
       </c>
       <c r="C21" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D21" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E21" s="16" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F21" s="18">
         <v>52000</v>
       </c>
       <c r="G21" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H21" s="19"/>
       <c r="I21" s="19"/>
@@ -1212,19 +1197,19 @@
         <v>8</v>
       </c>
       <c r="C22" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D22" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E22" s="16" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
       <c r="F22" s="18">
         <v>52000</v>
       </c>
       <c r="G22" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H22" s="19"/>
       <c r="I22" s="19"/>
@@ -1235,19 +1220,19 @@
         <v>8</v>
       </c>
       <c r="C23" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D23" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E23" s="16" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F23" s="18">
         <v>52000</v>
       </c>
       <c r="G23" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H23" s="19"/>
       <c r="I23" s="19"/>
@@ -1258,19 +1243,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>14</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F24" s="18">
         <v>52000</v>
       </c>
       <c r="G24" s="18">
-        <v>1423500</v>
+        <v>1300000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1281,13 +1266,13 @@
         <v>8</v>
       </c>
       <c r="C25" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D25" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="F25" s="18">
         <v>52000</v>
@@ -1304,13 +1289,13 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E26" s="16" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="F26" s="18">
         <v>52000</v>
@@ -1327,13 +1312,13 @@
         <v>8</v>
       </c>
       <c r="C27" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D27" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E27" s="16" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F27" s="18">
         <v>52000</v>
@@ -1350,13 +1335,13 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>14</v>
+        <v>26</v>
       </c>
       <c r="F28" s="18">
         <v>52000</v>
@@ -1373,13 +1358,13 @@
         <v>8</v>
       </c>
       <c r="C29" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D29" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>15</v>
+        <v>27</v>
       </c>
       <c r="F29" s="18">
         <v>52000</v>
@@ -1396,13 +1381,13 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>16</v>
+        <v>28</v>
       </c>
       <c r="F30" s="18">
         <v>52000</v>
@@ -1415,332 +1400,56 @@
       <c r="J30" s="20"/>
     </row>
     <row r="31" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B31" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C31" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D31" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E31" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F31" s="18">
+      <c r="B31" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C31" s="22" t="s">
+        <v>14</v>
+      </c>
+      <c r="D31" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="E31" s="22" t="s">
+        <v>29</v>
+      </c>
+      <c r="F31" s="24">
         <v>52000</v>
       </c>
-      <c r="G31" s="18">
+      <c r="G31" s="24">
         <v>1300000</v>
       </c>
-      <c r="H31" s="19"/>
-      <c r="I31" s="19"/>
-      <c r="J31" s="20"/>
-    </row>
-    <row r="32" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B32" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C32" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D32" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F32" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G32" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H32" s="19"/>
-      <c r="I32" s="19"/>
-      <c r="J32" s="20"/>
-    </row>
-    <row r="33" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B33" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C33" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D33" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E33" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F33" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G33" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H33" s="19"/>
-      <c r="I33" s="19"/>
-      <c r="J33" s="20"/>
-    </row>
-    <row r="34" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B34" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C34" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D34" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E34" s="16" t="s">
-        <v>22</v>
-      </c>
-      <c r="F34" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G34" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H34" s="19"/>
-      <c r="I34" s="19"/>
-      <c r="J34" s="20"/>
-    </row>
-    <row r="35" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B35" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C35" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="D35" s="17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F35" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G35" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H35" s="19"/>
-      <c r="I35" s="19"/>
-      <c r="J35" s="20"/>
+      <c r="H31" s="25"/>
+      <c r="I31" s="25"/>
+      <c r="J31" s="26"/>
     </row>
     <row r="36" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B36" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C36" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D36" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E36" s="16" t="s">
-        <v>26</v>
-      </c>
-      <c r="F36" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G36" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H36" s="19"/>
-      <c r="I36" s="19"/>
-      <c r="J36" s="20"/>
+      <c r="B36" s="32" t="s">
+        <v>39</v>
+      </c>
+      <c r="C36" s="32"/>
+      <c r="H36" s="1" t="s">
+        <v>39</v>
+      </c>
+      <c r="I36" s="1"/>
+      <c r="J36" s="1"/>
     </row>
     <row r="37" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B37" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C37" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D37" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E37" s="16" t="s">
-        <v>27</v>
-      </c>
-      <c r="F37" s="18">
-        <v>46400</v>
-      </c>
-      <c r="G37" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H37" s="19"/>
-      <c r="I37" s="19"/>
-      <c r="J37" s="20"/>
-    </row>
-    <row r="38" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B38" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C38" s="16" t="s">
-        <v>24</v>
-      </c>
-      <c r="D38" s="17" t="s">
-        <v>25</v>
-      </c>
-      <c r="E38" s="16" t="s">
-        <v>28</v>
-      </c>
-      <c r="F38" s="18">
-        <v>37120</v>
-      </c>
-      <c r="G38" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H38" s="19"/>
-      <c r="I38" s="19"/>
-      <c r="J38" s="20"/>
-    </row>
-    <row r="39" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B39" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C39" s="16" t="s">
-        <v>29</v>
-      </c>
-      <c r="D39" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="E39" s="16" t="s">
-        <v>23</v>
-      </c>
-      <c r="F39" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G39" s="18">
-        <v>908526</v>
-      </c>
-      <c r="H39" s="19"/>
-      <c r="I39" s="19"/>
-      <c r="J39" s="20"/>
-    </row>
-    <row r="40" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B40" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C40" s="16" t="s">
-        <v>31</v>
-      </c>
-      <c r="D40" s="17" t="s">
-        <v>32</v>
-      </c>
-      <c r="E40" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F40" s="18">
-        <v>52000</v>
-      </c>
-      <c r="G40" s="18">
-        <v>1300000</v>
-      </c>
-      <c r="H40" s="19"/>
-      <c r="I40" s="19"/>
-      <c r="J40" s="20"/>
-    </row>
-    <row r="41" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B41" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C41" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E41" s="16" t="s">
-        <v>13</v>
-      </c>
-      <c r="F41" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G41" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H41" s="19"/>
-      <c r="I41" s="19"/>
-      <c r="J41" s="20"/>
-    </row>
-    <row r="42" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B42" s="15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C42" s="16" t="s">
-        <v>33</v>
-      </c>
-      <c r="D42" s="17" t="s">
-        <v>34</v>
-      </c>
-      <c r="E42" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="F42" s="18">
-        <v>56940</v>
-      </c>
-      <c r="G42" s="18">
-        <v>1160000</v>
-      </c>
-      <c r="H42" s="19"/>
-      <c r="I42" s="19"/>
-      <c r="J42" s="20"/>
-    </row>
-    <row r="43" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B43" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C43" s="22" t="s">
-        <v>33</v>
-      </c>
-      <c r="D43" s="23" t="s">
-        <v>34</v>
-      </c>
-      <c r="E43" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="24">
-        <v>56940</v>
-      </c>
-      <c r="G43" s="24">
-        <v>1160000</v>
-      </c>
-      <c r="H43" s="25"/>
-      <c r="I43" s="25"/>
-      <c r="J43" s="26"/>
-    </row>
-    <row r="48" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B48" s="32" t="s">
-        <v>44</v>
-      </c>
-      <c r="C48" s="32"/>
-      <c r="H48" s="1" t="s">
-        <v>44</v>
-      </c>
-      <c r="I48" s="1"/>
-      <c r="J48" s="1"/>
-    </row>
-    <row r="49" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B49" s="32" t="s">
-        <v>43</v>
-      </c>
-      <c r="C49" s="32"/>
-      <c r="H49" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="I49" s="1"/>
-      <c r="J49" s="1"/>
+      <c r="B37" s="32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C37" s="32"/>
+      <c r="H37" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="1"/>
+      <c r="J37" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B49:C49"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="H49:J49"/>
-    <mergeCell ref="H48:J48"/>
+    <mergeCell ref="B37:C37"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="H37:J37"/>
+    <mergeCell ref="H36:J36"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
